--- a/RAAL/Production/Production_Forecast_RAAL_WM_2024-02-15.xlsx
+++ b/RAAL/Production/Production_Forecast_RAAL_WM_2024-02-15.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mynexte-my.sharepoint.com/personal/andrei_ionita_mynexte_com/Documents/Desktop/ML/Forecast_app/RAAL/Production/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_14448703C5395FB1BED16072E5BA2B43B3FFEDDB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B88D4FD5-AA81-4655-9D16-6130E9245DB7}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_F45687035381DD801CD06072E5BA2B438372C4A5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68D99D07-5A70-45B7-96CB-F37D25D37F66}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Production_Predictions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Production_Predictions!$A$1:$C$97</definedName>
-  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -381,11 +378,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -401,87 +401,87 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45334</v>
+        <v>45335</v>
       </c>
       <c r="B2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>0.6084102988243103</v>
+        <v>0.56593173742294312</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45334</v>
+        <v>45335</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2">
-        <v>0.39727780222892761</v>
+        <v>0.68719273805618286</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45334</v>
+        <v>45335</v>
       </c>
       <c r="B4">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2">
-        <v>0.15035361051559451</v>
+        <v>0.76722341775894165</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45334</v>
+        <v>45335</v>
       </c>
       <c r="B5">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2">
-        <v>6.5333223901689053E-3</v>
+        <v>0.70675069093704224</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45334</v>
+        <v>45335</v>
       </c>
       <c r="B6">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2">
-        <v>6.5333223901689053E-3</v>
+        <v>0.58974242210388184</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45334</v>
+        <v>45335</v>
       </c>
       <c r="B7">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2">
-        <v>6.5333223901689053E-3</v>
+        <v>0.39727780222892761</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45334</v>
+        <v>45335</v>
       </c>
       <c r="B8">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2">
-        <v>6.5333223901689053E-3</v>
+        <v>0.15035361051559451</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45334</v>
+        <v>45335</v>
       </c>
       <c r="B9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2">
         <v>6.5333223901689053E-3</v>
@@ -489,10 +489,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45334</v>
+        <v>45335</v>
       </c>
       <c r="B10">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2">
         <v>6.5333223901689053E-3</v>
@@ -500,10 +500,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45334</v>
+        <v>45335</v>
       </c>
       <c r="B11">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2">
         <v>6.5333223901689053E-3</v>
@@ -514,7 +514,7 @@
         <v>45335</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2">
         <v>6.5333223901689053E-3</v>
@@ -525,7 +525,7 @@
         <v>45335</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C13" s="2">
         <v>6.5333223901689053E-3</v>
@@ -536,7 +536,7 @@
         <v>45335</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C14" s="2">
         <v>6.5333223901689053E-3</v>
@@ -547,7 +547,7 @@
         <v>45335</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C15" s="2">
         <v>6.5333223901689053E-3</v>
@@ -555,10 +555,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C16" s="2">
         <v>6.5333223901689053E-3</v>
@@ -566,10 +566,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C17" s="2">
         <v>6.5333223901689053E-3</v>
@@ -577,10 +577,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C18" s="2">
         <v>6.5333223901689053E-3</v>
@@ -588,10 +588,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B19">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C19" s="2">
         <v>6.5333223901689053E-3</v>
@@ -599,153 +599,153 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B20">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C20" s="2">
-        <v>0.1204340010881424</v>
+        <v>6.5333223901689053E-3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B21">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C21" s="2">
-        <v>0.3680095374584198</v>
+        <v>6.5333223901689053E-3</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B22">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C22" s="2">
-        <v>0.56593173742294312</v>
+        <v>6.5333223901689053E-3</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B23">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C23" s="2">
-        <v>0.68719273805618286</v>
+        <v>6.5333223901689053E-3</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B24">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C24" s="2">
-        <v>0.76722341775894165</v>
+        <v>0.1204340010881424</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B25">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C25" s="2">
-        <v>0.70675069093704224</v>
+        <v>0.39727780222892761</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B26">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C26" s="2">
-        <v>0.58974242210388184</v>
+        <v>0.59688687324523926</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B27">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C27" s="2">
-        <v>0.39727780222892761</v>
+        <v>0.72821217775344849</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B28">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C28" s="2">
-        <v>0.15035361051559451</v>
+        <v>0.78101807832717896</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B29">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C29" s="2">
-        <v>6.5333223901689053E-3</v>
+        <v>0.7434544563293457</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B30">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C30" s="2">
-        <v>6.5333223901689053E-3</v>
+        <v>0.6084102988243103</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B31">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C31" s="2">
-        <v>6.5333223901689053E-3</v>
+        <v>0.41901662945747381</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B32">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C32" s="2">
-        <v>6.5333223901689053E-3</v>
+        <v>0.18608042597770691</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B33">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C33" s="2">
         <v>6.5333223901689053E-3</v>
@@ -753,10 +753,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B34">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C34" s="2">
         <v>6.5333223901689053E-3</v>
@@ -764,10 +764,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B35">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C35" s="2">
         <v>6.5333223901689053E-3</v>
@@ -778,7 +778,7 @@
         <v>45336</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C36" s="2">
         <v>6.5333223901689053E-3</v>
@@ -789,7 +789,7 @@
         <v>45336</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C37" s="2">
         <v>6.5333223901689053E-3</v>
@@ -800,7 +800,7 @@
         <v>45336</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C38" s="2">
         <v>6.5333223901689053E-3</v>
@@ -811,7 +811,7 @@
         <v>45336</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C39" s="2">
         <v>6.5333223901689053E-3</v>
@@ -819,10 +819,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C40" s="2">
         <v>6.5333223901689053E-3</v>
@@ -830,10 +830,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C41" s="2">
         <v>6.5333223901689053E-3</v>
@@ -841,10 +841,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B42">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C42" s="2">
         <v>6.5333223901689053E-3</v>
@@ -852,10 +852,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B43">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C43" s="2">
         <v>6.5333223901689053E-3</v>
@@ -863,109 +863,109 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B44">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C44" s="2">
-        <v>0.1204340010881424</v>
+        <v>6.5333223901689053E-3</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B45">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C45" s="2">
-        <v>0.38766172528266912</v>
+        <v>6.5333223901689053E-3</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B46">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C46" s="2">
-        <v>0.56593173742294312</v>
+        <v>6.5333223901689053E-3</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B47">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C47" s="2">
-        <v>0.72821217775344849</v>
+        <v>1.9337998703122139E-2</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B48">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C48" s="2">
-        <v>0.78101807832717896</v>
+        <v>0.62102407217025757</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B49">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C49" s="2">
-        <v>0.7434544563293457</v>
+        <v>1.5382469892501831</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>45332</v>
+        <v>45336</v>
       </c>
       <c r="B50">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C50" s="2">
-        <v>6.5333223901689053E-3</v>
+        <v>0.6084102988243103</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>45332</v>
+        <v>45336</v>
       </c>
       <c r="B51">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C51" s="2">
-        <v>6.5333223901689053E-3</v>
+        <v>0.41901662945747381</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>45332</v>
+        <v>45336</v>
       </c>
       <c r="B52">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C52" s="2">
-        <v>6.5333223901689053E-3</v>
+        <v>0.18608042597770691</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>45332</v>
+        <v>45336</v>
       </c>
       <c r="B53">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C53" s="2">
         <v>6.5333223901689053E-3</v>
@@ -973,10 +973,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>45332</v>
+        <v>45336</v>
       </c>
       <c r="B54">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C54" s="2">
         <v>6.5333223901689053E-3</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>45333</v>
+        <v>45336</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C55" s="2">
         <v>6.5333223901689053E-3</v>
@@ -995,10 +995,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>45333</v>
+        <v>45336</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C56" s="2">
         <v>6.5333223901689053E-3</v>
@@ -1006,10 +1006,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>45333</v>
+        <v>45336</v>
       </c>
       <c r="B57">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C57" s="2">
         <v>6.5333223901689053E-3</v>
@@ -1017,10 +1017,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>45333</v>
+        <v>45336</v>
       </c>
       <c r="B58">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C58" s="2">
         <v>6.5333223901689053E-3</v>
@@ -1028,10 +1028,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>45333</v>
+        <v>45336</v>
       </c>
       <c r="B59">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C59" s="2">
         <v>6.5333223901689053E-3</v>
@@ -1039,10 +1039,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>45333</v>
+        <v>45337</v>
       </c>
       <c r="B60">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C60" s="2">
         <v>6.5333223901689053E-3</v>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>45333</v>
+        <v>45337</v>
       </c>
       <c r="B61">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C61" s="2">
         <v>6.5333223901689053E-3</v>
@@ -1061,10 +1061,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>45333</v>
+        <v>45337</v>
       </c>
       <c r="B62">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C62" s="2">
         <v>6.5333223901689053E-3</v>
@@ -1072,175 +1072,175 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>45333</v>
+        <v>45337</v>
       </c>
       <c r="B63">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C63" s="2">
-        <v>0.1126274317502975</v>
+        <v>6.5333223901689053E-3</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>45333</v>
+        <v>45337</v>
       </c>
       <c r="B64">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C64" s="2">
-        <v>0.70675069093704224</v>
+        <v>6.5333223901689053E-3</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>45333</v>
+        <v>45337</v>
       </c>
       <c r="B65">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C65" s="2">
-        <v>1.489208340644836</v>
+        <v>6.5333223901689053E-3</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>45333</v>
+        <v>45337</v>
       </c>
       <c r="B66">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C66" s="2">
-        <v>1.550850033760071</v>
+        <v>6.5333223901689053E-3</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>45333</v>
+        <v>45337</v>
       </c>
       <c r="B67">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C67" s="2">
-        <v>1.489208340644836</v>
+        <v>1.9337998703122139E-2</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>45333</v>
+        <v>45337</v>
       </c>
       <c r="B68">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C68" s="2">
-        <v>1.2960687875747681</v>
+        <v>0.62102407217025757</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>45333</v>
+        <v>45337</v>
       </c>
       <c r="B69">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C69" s="2">
-        <v>1.0353139638900759</v>
+        <v>1.5382469892501831</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>45333</v>
+        <v>45337</v>
       </c>
       <c r="B70">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C70" s="2">
-        <v>0.76007896661758423</v>
+        <v>2.314427375793457</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>45333</v>
+        <v>45337</v>
       </c>
       <c r="B71">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C71" s="2">
-        <v>0.4534372091293335</v>
+        <v>2.8249268531799321</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>45333</v>
+        <v>45337</v>
       </c>
       <c r="B72">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C72" s="2">
-        <v>3.5623420029878623E-2</v>
+        <v>2.9991402626037602</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>45333</v>
+        <v>45337</v>
       </c>
       <c r="B73">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C73" s="2">
-        <v>6.5333223901689053E-3</v>
+        <v>2.863986730575562</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>45333</v>
+        <v>45337</v>
       </c>
       <c r="B74">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C74" s="2">
-        <v>6.5333223901689053E-3</v>
+        <v>2.3691377639770508</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>45333</v>
+        <v>45337</v>
       </c>
       <c r="B75">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C75" s="2">
-        <v>6.5333223901689053E-3</v>
+        <v>1.6887432336807251</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>45333</v>
+        <v>45337</v>
       </c>
       <c r="B76">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C76" s="2">
-        <v>6.5333223901689053E-3</v>
+        <v>0.84492462873458862</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>45333</v>
+        <v>45337</v>
       </c>
       <c r="B77">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C77" s="2">
-        <v>6.5333223901689053E-3</v>
+        <v>9.0657696127891541E-2</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>45333</v>
+        <v>45337</v>
       </c>
       <c r="B78">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C78" s="2">
         <v>6.5333223901689053E-3</v>
@@ -1248,10 +1248,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>45334</v>
+        <v>45337</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C79" s="2">
         <v>6.5333223901689053E-3</v>
@@ -1259,10 +1259,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>45334</v>
+        <v>45337</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C80" s="2">
         <v>6.5333223901689053E-3</v>
@@ -1270,10 +1270,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>45334</v>
+        <v>45337</v>
       </c>
       <c r="B81">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C81" s="2">
         <v>6.5333223901689053E-3</v>
@@ -1281,10 +1281,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>45334</v>
+        <v>45337</v>
       </c>
       <c r="B82">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C82" s="2">
         <v>6.5333223901689053E-3</v>
@@ -1292,10 +1292,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>45334</v>
+        <v>45337</v>
       </c>
       <c r="B83">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C83" s="2">
         <v>6.5333223901689053E-3</v>
@@ -1303,160 +1303,159 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>45334</v>
+        <v>45338</v>
       </c>
       <c r="B84">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C84" s="2">
-        <v>6.5333223901689053E-3</v>
+        <v>5.3160824775695801</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>45334</v>
+        <v>45338</v>
       </c>
       <c r="B85">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C85" s="2">
-        <v>6.5333223901689053E-3</v>
+        <v>5.3160824775695801</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>45334</v>
+        <v>45338</v>
       </c>
       <c r="B86">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C86" s="2">
-        <v>6.5333223901689053E-3</v>
+        <v>5.3160824775695801</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>45334</v>
+        <v>45338</v>
       </c>
       <c r="B87">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C87" s="2">
-        <v>0.42745494842529302</v>
+        <v>5.3160824775695801</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>45334</v>
+        <v>45338</v>
       </c>
       <c r="B88">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C88" s="2">
-        <v>0.39468070864677429</v>
+        <v>5.3160824775695801</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>45334</v>
+        <v>45338</v>
       </c>
       <c r="B89">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C89" s="2">
-        <v>0.66539508104324341</v>
+        <v>5.3160824775695801</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>45334</v>
+        <v>45338</v>
       </c>
       <c r="B90">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C90" s="2">
-        <v>0.78101807832717896</v>
+        <v>5.3160824775695801</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>45334</v>
+        <v>45338</v>
       </c>
       <c r="B91">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C91" s="2">
-        <v>0.83543217182159424</v>
+        <v>5.3160824775695801</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>45334</v>
+        <v>45338</v>
       </c>
       <c r="B92">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C92" s="2">
-        <v>0.78101807832717896</v>
+        <v>5.3259296417236328</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>45334</v>
+        <v>45338</v>
       </c>
       <c r="B93">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C93" s="2">
-        <v>0.6084102988243103</v>
+        <v>5.3572521209716797</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>45334</v>
+        <v>45338</v>
       </c>
       <c r="B94">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C94" s="2">
-        <v>0.39727780222892761</v>
+        <v>5.3572521209716797</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>45334</v>
+        <v>45338</v>
       </c>
       <c r="B95">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C95" s="2">
-        <v>0.15035361051559451</v>
+        <v>5.3572521209716797</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>45334</v>
+        <v>45338</v>
       </c>
       <c r="B96">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C96" s="2">
-        <v>6.5333223901689053E-3</v>
+        <v>5.3572521209716797</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>45334</v>
+        <v>45338</v>
       </c>
       <c r="B97">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C97" s="2">
-        <v>6.5333223901689053E-3</v>
+        <v>5.3514032363891602</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C97" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>